--- a/docs/odh/shr-core-Practitioner.xlsx
+++ b/docs/odh/shr-core-Practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$37</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="275">
   <si>
     <t>Path</t>
   </si>
@@ -217,13 +217,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Practitioner.implicitRules</t>
+    <t>Practitioner.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -253,9 +402,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -324,106 +470,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
-  </si>
-  <si>
-    <t>Practitioner.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Practitioner.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Practitioner.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -454,7 +504,7 @@
     <t>Either id or name is needed.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:Type.coding.code}
+    <t xml:space="preserve">value:type.coding.code}
 </t>
   </si>
   <si>
@@ -473,7 +523,7 @@
     <t>shr-core-NationalProviderIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-NationalProviderIdentifier]]} {[]}
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-NationalProviderIdentifier]]} {[]}
 </t>
   </si>
   <si>
@@ -486,7 +536,7 @@
     <t>shr-core-TaxIdentificationNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TaxIdentificationNumber]]} {[]}
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TaxIdentificationNumber]]} {[]}
 </t>
   </si>
   <si>
@@ -521,6 +571,9 @@
   </si>
   <si>
     <t>./statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>Practitioner.name</t>
@@ -630,6 +683,9 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -721,13 +777,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -761,13 +811,14 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
     <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the practitioner has to provide a service</t>
@@ -804,7 +855,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -987,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -996,7 +1047,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1019,11 +1070,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.80859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.83203125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.49609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1506,10 +1557,10 @@
         <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -1520,9 +1571,7 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>43</v>
@@ -1571,7 +1620,7 @@
         <v>43</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1589,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>43</v>
@@ -1604,14 +1653,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>43</v>
@@ -1623,16 +1672,16 @@
         <v>43</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1658,37 +1707,37 @@
         <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>43</v>
@@ -1700,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>43</v>
@@ -1711,11 +1760,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1736,15 +1787,11 @@
       <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>43</v>
@@ -1793,16 +1840,16 @@
         <v>43</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>43</v>
@@ -1811,7 +1858,7 @@
         <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>43</v>
@@ -1822,18 +1869,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>43</v>
@@ -1842,19 +1889,19 @@
         <v>43</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1903,15 +1950,11 @@
       <c r="AD8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>95</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>43</v>
       </c>
@@ -1922,7 +1965,7 @@
         <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>43</v>
@@ -1933,18 +1976,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>43</v>
@@ -1953,19 +1996,19 @@
         <v>43</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2003,24 +2046,22 @@
         <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>43</v>
       </c>
@@ -2031,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>43</v>
@@ -2042,11 +2083,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>43</v>
       </c>
@@ -2055,7 +2094,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>43</v>
@@ -2064,16 +2103,20 @@
         <v>43</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>43</v>
@@ -2121,15 +2164,11 @@
       <c r="AD10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>43</v>
       </c>
@@ -2151,7 +2190,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2162,7 +2201,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>43</v>
@@ -2171,18 +2210,20 @@
         <v>43</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>43</v>
@@ -2207,13 +2248,13 @@
         <v>43</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>43</v>
@@ -2230,15 +2271,11 @@
       <c r="AD11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>43</v>
       </c>
@@ -2249,7 +2286,7 @@
         <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>43</v>
@@ -2260,7 +2297,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2271,7 +2308,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>43</v>
@@ -2280,18 +2317,20 @@
         <v>43</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>43</v>
@@ -2316,13 +2355,13 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>43</v>
@@ -2339,15 +2378,11 @@
       <c r="AD12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>43</v>
       </c>
@@ -2369,7 +2404,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2377,7 +2412,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>53</v>
@@ -2386,28 +2421,30 @@
         <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>43</v>
@@ -2449,10 +2486,10 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>53</v>
@@ -2467,7 +2504,7 @@
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -2478,7 +2515,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2486,7 +2523,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>53</v>
@@ -2501,15 +2538,17 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>43</v>
@@ -2534,11 +2573,13 @@
         <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -2556,7 +2597,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2574,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -2585,39 +2626,39 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2667,17 +2708,17 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AI15" t="s" s="2">
         <v>43</v>
       </c>
@@ -2685,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -2696,41 +2737,41 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>43</v>
       </c>
@@ -2766,17 +2807,19 @@
         <v>43</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2791,54 +2834,54 @@
         <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -2887,7 +2930,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2902,54 +2945,54 @@
         <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -2998,7 +3041,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3013,21 +3056,21 @@
         <v>43</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3035,13 +3078,13 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>43</v>
@@ -3050,22 +3093,20 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="O19" t="s" s="2">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -3099,25 +3140,23 @@
         <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>43</v>
@@ -3126,29 +3165,31 @@
         <v>43</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>53</v>
@@ -3171,12 +3212,8 @@
       <c r="L20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>43</v>
       </c>
@@ -3224,7 +3261,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3239,23 +3276,25 @@
         <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>43</v>
       </c>
@@ -3264,10 +3303,10 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>43</v>
@@ -3276,20 +3315,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>43</v>
       </c>
@@ -3337,7 +3372,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3352,21 +3387,21 @@
         <v>43</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3377,7 +3412,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -3389,22 +3424,22 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -3450,13 +3485,13 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -3465,21 +3500,21 @@
         <v>43</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3493,7 +3528,7 @@
         <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>43</v>
@@ -3502,17 +3537,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -3537,13 +3574,13 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
@@ -3561,13 +3598,13 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
@@ -3576,13 +3613,13 @@
         <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -3590,7 +3627,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3601,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -3613,17 +3650,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -3672,13 +3711,13 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
@@ -3687,13 +3726,13 @@
         <v>43</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -3701,7 +3740,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3721,20 +3760,22 @@
         <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -3783,7 +3824,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3798,13 +3839,13 @@
         <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -3812,7 +3853,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3823,7 +3864,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -3832,19 +3873,21 @@
         <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -3868,13 +3911,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -3892,28 +3935,28 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -3921,7 +3964,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3941,19 +3984,21 @@
         <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4001,7 +4046,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4016,13 +4061,13 @@
         <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4030,11 +4075,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4053,18 +4098,18 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4112,7 +4157,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4130,10 +4175,10 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4141,11 +4186,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4158,23 +4203,21 @@
         <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4223,7 +4266,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4235,16 +4278,16 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4252,7 +4295,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4263,7 +4306,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>
@@ -4275,18 +4318,16 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
@@ -4334,13 +4375,13 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>43</v>
@@ -4352,7 +4393,7 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
@@ -4363,18 +4404,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -4386,15 +4427,17 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -4419,13 +4462,13 @@
         <v>43</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
@@ -4443,13 +4486,13 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
@@ -4461,10 +4504,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4476,37 +4519,37 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="M32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
@@ -4554,13 +4597,13 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
@@ -4572,10 +4615,10 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -4583,7 +4626,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4594,7 +4637,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -4606,16 +4649,18 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
@@ -4663,13 +4708,13 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>43</v>
@@ -4681,7 +4726,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -4692,7 +4737,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4700,10 +4745,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>43</v>
@@ -4715,20 +4760,16 @@
         <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>43</v>
       </c>
@@ -4752,13 +4793,13 @@
         <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>43</v>
@@ -4776,35 +4817,368 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="G37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM34">
+  <autoFilter ref="A1:AM37">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4814,7 +5188,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
